--- a/沪深300-中证500-中证1000-中证2000_夏普比率.xlsx
+++ b/沪深300-中证500-中证1000-中证2000_夏普比率.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12232" windowHeight="9510"/>
+    <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="沪深300" sheetId="1" r:id="rId1"/>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/沪深300-中证500-中证1000-中证2000_夏普比率.xlsx
+++ b/沪深300-中证500-中证1000-中证2000_夏普比率.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555"/>
+    <workbookView windowWidth="12232" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="沪深300" sheetId="1" r:id="rId1"/>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
